--- a/Batch2_input5.xlsx
+++ b/Batch2_input5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\1.Sudhakar\1.Scrapy\1.upwork\UP54-CONN\Batch 1\Scrapping Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1BC4DA-8DBE-447A-A152-3D2F5F8F9A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E0F298-F458-4FE6-9E81-81C626F2B14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3F4BF98F-1122-47C9-8B36-DD095C5B59D8}"/>
   </bookViews>
@@ -727,10 +727,13 @@
   <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="27.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
